--- a/data/Statistical_results.xlsx
+++ b/data/Statistical_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nineluijendijk/evolutionarybiology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE82B1D-21D3-A24E-A5FD-53F59250D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278980A1-39A3-E248-B365-C844EC1A28CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{F9C3C0C0-2FCD-E24C-B3FC-AEC90BBEEC5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Variables</t>
   </si>
@@ -53,6 +53,12 @@
     <t>Number_dif</t>
   </si>
   <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
     <t>Population</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
     <t>Levene's</t>
   </si>
   <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
     <t>T-test</t>
   </si>
   <si>
@@ -123,6 +126,75 @@
   </si>
   <si>
     <t>2.607*</t>
+  </si>
+  <si>
+    <t>Chi-squared</t>
+  </si>
+  <si>
+    <t>χ</t>
+  </si>
+  <si>
+    <t>19.95*</t>
+  </si>
+  <si>
+    <t>13.629**</t>
+  </si>
+  <si>
+    <t>10.19*</t>
+  </si>
+  <si>
+    <t>31.192***</t>
+  </si>
+  <si>
+    <t>Two-Way ANOVA</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA</t>
+  </si>
+  <si>
+    <t>High salinity</t>
+  </si>
+  <si>
+    <t>Low salinity</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>5.94**</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>Wet weight</t>
+  </si>
+  <si>
+    <t>Number of leaves</t>
+  </si>
+  <si>
+    <t>Longest leaf length</t>
   </si>
 </sst>
 </file>
@@ -166,10 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,17 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1AB5B0-86F6-5F48-AD0A-8C06B60B97D9}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
@@ -502,7 +576,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -514,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,7 +622,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.50580000000000003</v>
@@ -562,7 +636,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0.13689999999999999</v>
@@ -576,7 +650,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0.28470000000000001</v>
@@ -590,7 +664,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -607,151 +681,236 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>-0.58330000000000004</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.98699000000000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>3.4041999999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
+      <c r="A15" t="s">
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1.06</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="F17">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="C19">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="D19">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>